--- a/css.xlsx
+++ b/css.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="15400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="15400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="constructors" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
   <si>
     <t>Line</t>
   </si>
@@ -465,9 +465,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
     <t>2nd</t>
   </si>
   <si>
@@ -502,6 +499,27 @@
   </si>
   <si>
     <t>#fe6</t>
+  </si>
+  <si>
+    <t>#9ee</t>
+  </si>
+  <si>
+    <t>#be8</t>
+  </si>
+  <si>
+    <t>#bf0</t>
+  </si>
+  <si>
+    <t>#8ff</t>
+  </si>
+  <si>
+    <t>#fa0</t>
+  </si>
+  <si>
+    <t>#f4f</t>
+  </si>
+  <si>
+    <t>#fb</t>
   </si>
 </sst>
 </file>
@@ -531,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +665,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEE66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBB88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99EEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBEE88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF44FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -702,6 +762,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -712,16 +779,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFEE66"/>
-      <color rgb="FFFFDD66"/>
-      <color rgb="FFDDDDDD"/>
-      <color rgb="FFFF99EE"/>
-      <color rgb="FFAA22FF"/>
-      <color rgb="FF9966FF"/>
-      <color rgb="FF9944FF"/>
-      <color rgb="FFAA44FF"/>
-      <color rgb="FFAA22CC"/>
-      <color rgb="FFFF2233"/>
+      <color rgb="FFFF44FF"/>
+      <color rgb="FFFFAA00"/>
+      <color rgb="FFFFCB88"/>
+      <color rgb="FFFFBB00"/>
+      <color rgb="FF88FFFF"/>
+      <color rgb="FFBBFF00"/>
+      <color rgb="FF88FF00"/>
+      <color rgb="FFBBEE88"/>
+      <color rgb="FF99EEEE"/>
+      <color rgb="FFCCFF88"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1038,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1046,7 +1113,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
@@ -1068,7 +1135,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1076,7 +1143,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -1192,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1443,7 +1510,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1835,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,7 +1921,7 @@
         <v>"palette":["#000",</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
         <v>121</v>
@@ -1870,455 +1937,538 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;C2&amp;D2</f>
-        <v>"#f66",</v>
+        <v>"#fff",</v>
       </c>
       <c r="B2" t="s">
         <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="7"/>
       <c r="F2" s="2">
+        <f t="shared" ref="F2:F10" si="0">F1+1</f>
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="7"/>
-      <c r="L2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">B3&amp;C3&amp;D3</f>
-        <v>"#f86",</v>
+        <f>B3&amp;C3&amp;D3</f>
+        <v>"#ddd",</v>
       </c>
       <c r="B3" t="s">
         <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="13"/>
-      <c r="L3" t="s">
-        <v>128</v>
+      <c r="G3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>"#fe6",</v>
+        <f>B4&amp;C4&amp;D4</f>
+        <v>"#999",</v>
       </c>
       <c r="B4" t="s">
         <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="2">
-        <f>F3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="25"/>
-      <c r="L4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>"#6d9",</v>
+        <f>B5&amp;C5&amp;D5</f>
+        <v>"#f66",</v>
       </c>
       <c r="B5" t="s">
         <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F19" si="1">F4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>"#4ad",</v>
+        <f>B6&amp;C6&amp;D6</f>
+        <v>"#fb",</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
       <c r="I6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13"/>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>"#a8e",</v>
+        <f t="shared" ref="A7:A21" si="1">B7&amp;C7&amp;D7</f>
+        <v>"#fe6",</v>
       </c>
       <c r="B7" t="s">
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>141</v>
-      </c>
       <c r="I7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="25"/>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>"#f9e",</v>
+        <f t="shared" si="1"/>
+        <v>"#be8",</v>
       </c>
       <c r="B8" t="s">
         <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="18"/>
-      <c r="L8" t="s">
-        <v>133</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>"#ddd",</v>
+        <f t="shared" si="1"/>
+        <v>"#6d9",</v>
       </c>
       <c r="B9" t="s">
         <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="10"/>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>"#999",</v>
+        <f t="shared" si="1"/>
+        <v>"#9ee",</v>
       </c>
       <c r="B10" t="s">
         <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="12"/>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>"#f23",</v>
+        <f t="shared" si="1"/>
+        <v>"#4ad",</v>
       </c>
       <c r="B11" t="s">
         <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F8:F25" si="2">F10+1</f>
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="8"/>
+      <c r="L11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>"#f80",</v>
+        <f t="shared" si="1"/>
+        <v>"#a8e",</v>
       </c>
       <c r="B12" t="s">
         <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="9"/>
+      <c r="L12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>"#ff0",</v>
+        <f t="shared" si="1"/>
+        <v>"#f9e",</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>146</v>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="18"/>
+      <c r="L13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>"#7c0",</v>
+        <f t="shared" si="1"/>
+        <v>"#f23",</v>
       </c>
       <c r="B14" t="s">
         <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>"#0bf",</v>
+        <f t="shared" si="1"/>
+        <v>"#fa0",</v>
       </c>
       <c r="B15" t="s">
         <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>148</v>
+      <c r="I15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="12"/>
+      <c r="L15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>"#a2c",</v>
+        <f t="shared" si="1"/>
+        <v>"#ff0",</v>
       </c>
       <c r="B16" t="s">
         <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>"#e5c",</v>
+        <f t="shared" si="1"/>
+        <v>"#bf0",</v>
       </c>
       <c r="B17" t="s">
         <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>"#fff",],</v>
+        <f t="shared" si="1"/>
+        <v>"#7c0",</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="11"/>
+        <v>"#8ff",</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>"#0bf",</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>"#a2c",</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18</f>
-        <v>"palette":["#000","#f66","#f86","#fe6","#6d9","#4ad","#a8e","#f9e","#ddd","#999","#f23","#f80","#ff0","#7c0","#0bf","#a2c","#e5c","#fff",],</v>
-      </c>
+        <f>B22&amp;C22&amp;D22</f>
+        <v>"#f4f",],</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18&amp;A19&amp;A20&amp;A21&amp;A22</f>
+        <v>"palette":["#000","#fff","#ddd","#999","#f66","#fb","#fe6","#be8","#6d9","#9ee","#4ad","#a8e","#f9e","#f23","#fa0","#ff0","#bf0","#7c0","#8ff","#0bf","#a2c","#f4f",],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
